--- a/Assets/Cr7Example.xlsx
+++ b/Assets/Cr7Example.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr autoCompressPictures="1"/>
   <bookViews>
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="west2" sheetId="1" r:id="rId3"/>
-    <sheet name="west" sheetId="2" r:id="rId4"/>
+    <sheet name="west" sheetId="1" r:id="rId3"/>
+    <sheet name="west2" sheetId="2" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -15,6 +15,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
     <t xml:space="preserve">Num_0</t>
   </si>
   <si>
@@ -42,6 +45,9 @@
     <t xml:space="preserve">Num_8</t>
   </si>
   <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
     <t xml:space="preserve">Num_9</t>
   </si>
   <si>
@@ -70,18 +76,13 @@
   </si>
   <si>
     <t xml:space="preserve">Num_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -109,16 +110,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
@@ -156,32 +157,395 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>34</v>
+      </c>
+      <c r="J6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>43</v>
+      </c>
+      <c r="J7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>49</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>51</v>
+      </c>
+      <c r="I8">
+        <v>52</v>
+      </c>
+      <c r="J8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <v>57</v>
+      </c>
+      <c r="F9">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>59</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>61</v>
+      </c>
+      <c r="J9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>66</v>
+      </c>
+      <c r="F10">
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>68</v>
+      </c>
+      <c r="H10">
+        <v>69</v>
+      </c>
+      <c r="I10">
+        <v>70</v>
+      </c>
+      <c r="J10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>74</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <v>76</v>
+      </c>
+      <c r="G11">
+        <v>77</v>
+      </c>
+      <c r="H11">
+        <v>78</v>
+      </c>
+      <c r="I11">
+        <v>79</v>
+      </c>
+      <c r="J11">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -1329,367 +1693,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2"/>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>15</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>22</v>
-      </c>
-      <c r="G5">
-        <v>23</v>
-      </c>
-      <c r="H5">
-        <v>24</v>
-      </c>
-      <c r="I5">
-        <v>25</v>
-      </c>
-      <c r="J5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>28</v>
-      </c>
-      <c r="D6">
-        <v>29</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>31</v>
-      </c>
-      <c r="G6">
-        <v>32</v>
-      </c>
-      <c r="H6">
-        <v>33</v>
-      </c>
-      <c r="I6">
-        <v>34</v>
-      </c>
-      <c r="J6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>36</v>
-      </c>
-      <c r="C7">
-        <v>37</v>
-      </c>
-      <c r="D7">
-        <v>38</v>
-      </c>
-      <c r="E7">
-        <v>39</v>
-      </c>
-      <c r="F7">
-        <v>40</v>
-      </c>
-      <c r="G7">
-        <v>41</v>
-      </c>
-      <c r="H7">
-        <v>42</v>
-      </c>
-      <c r="I7">
-        <v>43</v>
-      </c>
-      <c r="J7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>46</v>
-      </c>
-      <c r="D8">
-        <v>47</v>
-      </c>
-      <c r="E8">
-        <v>48</v>
-      </c>
-      <c r="F8">
-        <v>49</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8">
-        <v>51</v>
-      </c>
-      <c r="I8">
-        <v>52</v>
-      </c>
-      <c r="J8">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>54</v>
-      </c>
-      <c r="C9">
-        <v>55</v>
-      </c>
-      <c r="D9">
-        <v>56</v>
-      </c>
-      <c r="E9">
-        <v>57</v>
-      </c>
-      <c r="F9">
-        <v>58</v>
-      </c>
-      <c r="G9">
-        <v>59</v>
-      </c>
-      <c r="H9">
-        <v>60</v>
-      </c>
-      <c r="I9">
-        <v>61</v>
-      </c>
-      <c r="J9">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>63</v>
-      </c>
-      <c r="C10">
-        <v>64</v>
-      </c>
-      <c r="D10">
-        <v>65</v>
-      </c>
-      <c r="E10">
-        <v>66</v>
-      </c>
-      <c r="F10">
-        <v>67</v>
-      </c>
-      <c r="G10">
-        <v>68</v>
-      </c>
-      <c r="H10">
-        <v>69</v>
-      </c>
-      <c r="I10">
-        <v>70</v>
-      </c>
-      <c r="J10">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>72</v>
-      </c>
-      <c r="C11">
-        <v>73</v>
-      </c>
-      <c r="D11">
-        <v>74</v>
-      </c>
-      <c r="E11">
-        <v>75</v>
-      </c>
-      <c r="F11">
-        <v>76</v>
-      </c>
-      <c r="G11">
-        <v>77</v>
-      </c>
-      <c r="H11">
-        <v>78</v>
-      </c>
-      <c r="I11">
-        <v>79</v>
-      </c>
-      <c r="J11">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Assets/Cr7Example.xlsx
+++ b/Assets/Cr7Example.xlsx
@@ -6,8 +6,8 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="west" sheetId="1" r:id="rId3"/>
-    <sheet name="west2" sheetId="2" r:id="rId4"/>
+    <sheet name="west2" sheetId="1" r:id="rId3"/>
+    <sheet name="west" sheetId="2" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -15,67 +15,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
+    <t xml:space="preserve">Num_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Id</t>
   </si>
   <si>
-    <t xml:space="preserve">Num_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_8</t>
-  </si>
-  <si>
     <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num_18</t>
   </si>
 </sst>
 </file>
@@ -157,395 +157,32 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2"/>
-      <c r="B2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="F4">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="G4">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="H4">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="I4">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="J4">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
+      <c r="S1" t="s">
         <v>18</v>
-      </c>
-      <c r="C5">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>22</v>
-      </c>
-      <c r="G5">
-        <v>23</v>
-      </c>
-      <c r="H5">
-        <v>24</v>
-      </c>
-      <c r="I5">
-        <v>25</v>
-      </c>
-      <c r="J5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>28</v>
-      </c>
-      <c r="D6">
-        <v>29</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>31</v>
-      </c>
-      <c r="G6">
-        <v>32</v>
-      </c>
-      <c r="H6">
-        <v>33</v>
-      </c>
-      <c r="I6">
-        <v>34</v>
-      </c>
-      <c r="J6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>36</v>
-      </c>
-      <c r="C7">
-        <v>37</v>
-      </c>
-      <c r="D7">
-        <v>38</v>
-      </c>
-      <c r="E7">
-        <v>39</v>
-      </c>
-      <c r="F7">
-        <v>40</v>
-      </c>
-      <c r="G7">
-        <v>41</v>
-      </c>
-      <c r="H7">
-        <v>42</v>
-      </c>
-      <c r="I7">
-        <v>43</v>
-      </c>
-      <c r="J7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>46</v>
-      </c>
-      <c r="D8">
-        <v>47</v>
-      </c>
-      <c r="E8">
-        <v>48</v>
-      </c>
-      <c r="F8">
-        <v>49</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8">
-        <v>51</v>
-      </c>
-      <c r="I8">
-        <v>52</v>
-      </c>
-      <c r="J8">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>54</v>
-      </c>
-      <c r="C9">
-        <v>55</v>
-      </c>
-      <c r="D9">
-        <v>56</v>
-      </c>
-      <c r="E9">
-        <v>57</v>
-      </c>
-      <c r="F9">
-        <v>58</v>
-      </c>
-      <c r="G9">
-        <v>59</v>
-      </c>
-      <c r="H9">
-        <v>60</v>
-      </c>
-      <c r="I9">
-        <v>61</v>
-      </c>
-      <c r="J9">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>63</v>
-      </c>
-      <c r="C10">
-        <v>64</v>
-      </c>
-      <c r="D10">
-        <v>65</v>
-      </c>
-      <c r="E10">
-        <v>66</v>
-      </c>
-      <c r="F10">
-        <v>67</v>
-      </c>
-      <c r="G10">
-        <v>68</v>
-      </c>
-      <c r="H10">
-        <v>69</v>
-      </c>
-      <c r="I10">
-        <v>70</v>
-      </c>
-      <c r="J10">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>72</v>
-      </c>
-      <c r="C11">
-        <v>73</v>
-      </c>
-      <c r="D11">
-        <v>74</v>
-      </c>
-      <c r="E11">
-        <v>75</v>
-      </c>
-      <c r="F11">
-        <v>76</v>
-      </c>
-      <c r="G11">
-        <v>77</v>
-      </c>
-      <c r="H11">
-        <v>78</v>
-      </c>
-      <c r="I11">
-        <v>79</v>
-      </c>
-      <c r="J11">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -1693,4 +1330,367 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>34</v>
+      </c>
+      <c r="J6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>43</v>
+      </c>
+      <c r="J7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>49</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>51</v>
+      </c>
+      <c r="I8">
+        <v>52</v>
+      </c>
+      <c r="J8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <v>57</v>
+      </c>
+      <c r="F9">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>59</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>61</v>
+      </c>
+      <c r="J9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>66</v>
+      </c>
+      <c r="F10">
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>68</v>
+      </c>
+      <c r="H10">
+        <v>69</v>
+      </c>
+      <c r="I10">
+        <v>70</v>
+      </c>
+      <c r="J10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>74</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <v>76</v>
+      </c>
+      <c r="G11">
+        <v>77</v>
+      </c>
+      <c r="H11">
+        <v>78</v>
+      </c>
+      <c r="I11">
+        <v>79</v>
+      </c>
+      <c r="J11">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>